--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0405101384793125</v>
+        <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0643051395617496</v>
+        <v>-0.0537172564458189</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0167151373968755</v>
+        <v>-0.0201288487765744</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0751100159316077</v>
+        <v>-0.0641540725818796</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.115386315088904</v>
+        <v>-0.0927153470462684</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0348337167743117</v>
+        <v>-0.0355927981174907</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0115332058510844</v>
+        <v>-0.0245926488440848</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0543790817943574</v>
+        <v>-0.0546295450346903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0313126700921886</v>
+        <v>0.0054442473465207</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0295831559590996</v>
+        <v>-0.0157041853215816</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0811193752539557</v>
+        <v>-0.0521865518209021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0219530633357564</v>
+        <v>0.020778181177739</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0291663715127749</v>
+        <v>-0.0286667838346521</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0773131093872651</v>
+        <v>-0.0626833376267647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0189803663617153</v>
+        <v>0.00534976995746044</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0395525406328933</v>
+        <v>-0.0326947926612725</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0736720078149598</v>
+        <v>-0.0567668583978697</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00543307345082682</v>
+        <v>-0.00862272692467531</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.108903413635317</v>
+        <v>-0.0782088563428815</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.169526189303738</v>
+        <v>-0.120788612831146</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.048280637966897</v>
+        <v>-0.0356290998546174</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.010593579730001</v>
+        <v>-0.0273476214189922</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.078313479239972</v>
+        <v>-0.0754119270504959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05712631977997</v>
+        <v>0.0207166842125115</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0401684807752473</v>
+        <v>0.000510279633646806</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.115936985025546</v>
+        <v>-0.0533936399877183</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0356000234750518</v>
+        <v>0.0544141992550119</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0206553271550592</v>
+        <v>-0.00563204873647634</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.050703709994465</v>
+        <v>-0.0555489715745713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0920143643045833</v>
+        <v>0.0442848741016186</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0252544925943794</v>
+        <v>0.0104793786936969</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0598679690449487</v>
+        <v>-0.0487924649769307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110376954233708</v>
+        <v>0.0697512223643246</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -612,13 +612,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.147742440649242</v>
+        <v>-0.125806567920452</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.312005963956249</v>
+        <v>-0.239492722039258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0165210826577656</v>
+        <v>-0.0121204138016466</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0206238312078882</v>
+        <v>-0.0732324729169756</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.205171200556432</v>
+        <v>-0.202440605612435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163923538140655</v>
+        <v>0.0559756597784838</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -646,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0683540707457161</v>
+        <v>0.0779942095418173</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0862321304397162</v>
+        <v>-0.0316805235469657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222940271931148</v>
+        <v>0.1876689426306</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -663,13 +663,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122490686514435</v>
+        <v>0.0956099986782644</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0497734105134927</v>
+        <v>-0.0214985034786699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.294754783542363</v>
+        <v>0.212718500835199</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -680,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0765248032469395</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.148482662821163</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004566943672716</v>
+        <v>0.018689318870975</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.160817575241867</v>
+        <v>-0.0577340087736792</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.269722666965031</v>
+        <v>-0.136826906327932</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0519124835187019</v>
+        <v>0.021358888780574</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0760877284867964</v>
+        <v>-0.0434592694204032</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.207242548945063</v>
+        <v>-0.13671738911776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0550670919714705</v>
+        <v>0.049798850276954</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0946696441052333</v>
+        <v>0.105449338356119</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0837710055623315</v>
+        <v>-0.0204457201484487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.273110293772798</v>
+        <v>0.231344396860687</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -748,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0175479648798547</v>
+        <v>-0.0726452073054339</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.229293198992948</v>
+        <v>-0.206385646323798</v>
       </c>
       <c r="D21" t="n">
-        <v>0.194197269233238</v>
+        <v>0.0610952317129307</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.171200400434677</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.252797961937622</v>
+        <v>-0.168418320346958</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0896028389317323</v>
+        <v>-0.0503765986897887</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -782,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.173113791603596</v>
+        <v>-0.061671240730143</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.299692121117478</v>
+        <v>-0.155534106318584</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0465354620897142</v>
+        <v>0.0321916248582977</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -799,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.303064486563094</v>
+        <v>-0.26246254996988</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.58709621519935</v>
+        <v>-0.456943328643285</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0190327579268385</v>
+        <v>-0.0679817712964741</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -816,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.14313770259994</v>
+        <v>-0.142713166071215</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.306469774768289</v>
+        <v>-0.258537863458095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0201943695684084</v>
+        <v>-0.0268884686843337</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.157741004579829</v>
+        <v>-0.0958893145026702</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.322414726532477</v>
+        <v>-0.214731532354088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0069327173728185</v>
+        <v>0.0229529033487479</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0937905063089196</v>
+        <v>-0.0547199015664292</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.197428467420491</v>
+        <v>-0.129578069801682</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00984745480265203</v>
+        <v>0.020138266668824</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -867,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.100583499021523</v>
+        <v>-0.168611121441334</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.601827907593448</v>
+        <v>-0.471511786687693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.400660909550402</v>
+        <v>0.134289543805024</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0703374160513362</v>
+        <v>-0.0975588305565388</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.23800959034267</v>
+        <v>-0.219683384429315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0973347582399972</v>
+        <v>0.0245657233162376</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -901,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.200179372921724</v>
+        <v>-0.0312130051168108</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.384634552122933</v>
+        <v>-0.166085873797252</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0157241937205164</v>
+        <v>0.103659863563631</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -918,13 +918,13 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.00640019493411617</v>
+        <v>0.0177455830795082</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.192778475062936</v>
+        <v>-0.129674030460566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.179978085194703</v>
+        <v>0.165165196619582</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00503032067922172</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0896479045450339</v>
+        <v>-0.133166395952546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0997085459034773</v>
+        <v>0.00108491876264682</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.11657376940463</v>
+        <v>-0.17971290829258</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.28372413172569</v>
+        <v>-0.293573153842733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0505765929164299</v>
+        <v>-0.0658526627424265</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -969,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.132623275725554</v>
+        <v>0.0265569222543397</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0508953093004786</v>
+        <v>-0.103175004699774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.316141860751588</v>
+        <v>0.156288849208453</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -986,13 +986,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0444929461560965</v>
+        <v>0.0781180680535408</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.291493895528635</v>
+        <v>-0.145276103620896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.380479787840828</v>
+        <v>0.301512239727978</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1003,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00908160694117175</v>
+        <v>-0.0716076027859697</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.152767582386756</v>
+        <v>-0.193612080054605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1709307962691</v>
+        <v>0.0503968744826653</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0434352917667326</v>
+        <v>0.00775068673104141</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0399376672538099</v>
+        <v>-0.0503794672190532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.126808250787275</v>
+        <v>0.0658808406811361</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1037,13 +1037,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0299786102272273</v>
+        <v>-0.0412933678280466</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.11498118182019</v>
+        <v>-0.138455527050746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.174938402274645</v>
+        <v>0.0558687913946531</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0821368748607625</v>
+        <v>0.0622181099367375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0688938516701593</v>
+        <v>-0.0442911327542965</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233167601391684</v>
+        <v>0.168727352627771</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.214355152453066</v>
+        <v>-0.0956579670183294</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.423558175407357</v>
+        <v>-0.255375085651511</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.00515212949877517</v>
+        <v>0.0640591516148518</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1088,13 +1088,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165856806778763</v>
+        <v>0.0621909453471425</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0169876630563522</v>
+        <v>-0.063422218363497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348701276613879</v>
+        <v>0.187804109057782</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0845158701934025</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.030081917545833</v>
+        <v>0.0119770053178827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.199113657932638</v>
+        <v>0.176474662837814</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.223590902153173</v>
+        <v>0.0573924947248667</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0900596409863453</v>
+        <v>-0.16564996863585</v>
       </c>
       <c r="D43" t="n">
-        <v>0.537241445292692</v>
+        <v>0.280434958085584</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19976998374974</v>
+        <v>0.151394787185451</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0180838758530961</v>
+        <v>-0.0037557504716324</v>
       </c>
       <c r="D44" t="n">
-        <v>0.417623843352575</v>
+        <v>0.306545324842535</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1156,13 +1156,13 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0254204288519147</v>
+        <v>0.130703029493065</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.286410309291458</v>
+        <v>-0.054846105278871</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235569451587629</v>
+        <v>0.316252164265001</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1173,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0264070731580139</v>
+        <v>0.0384163128584219</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.205785739391626</v>
+        <v>-0.0940087847960157</v>
       </c>
       <c r="D46" t="n">
-        <v>0.152971593075598</v>
+        <v>0.17084141051286</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00527322075229465</v>
+        <v>-0.00397790188562713</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0576177795886535</v>
+        <v>-0.0405513824024224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0470713380840642</v>
+        <v>0.0325955786311682</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00851577608941156</v>
+        <v>0.0189895836190502</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0977596674614283</v>
+        <v>-0.0566773880789962</v>
       </c>
       <c r="D48" t="n">
-        <v>0.114791219640251</v>
+        <v>0.0946565553170965</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.000321996264639743</v>
+        <v>-0.0157561854915662</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0825677275159753</v>
+        <v>-0.0715929525179025</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0819237349866958</v>
+        <v>0.04008058153477</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.113624571129156</v>
+        <v>-0.00418745938214907</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.372514739056346</v>
+        <v>-0.209030617978407</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145265596798034</v>
+        <v>0.200655699214109</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0163680097269427</v>
+        <v>-0.00915953352050666</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.110903447387534</v>
+        <v>-0.0759258302732102</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0781674279336487</v>
+        <v>0.0576067632321969</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0530237098185993</v>
+        <v>-0.0537680139261422</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0941783085364134</v>
+        <v>-0.0829294105584232</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0118691111007853</v>
+        <v>-0.0246066172938611</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0636853419666948</v>
+        <v>-0.0705082853828564</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.124850915447243</v>
+        <v>-0.114157787350691</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.00251976848614677</v>
+        <v>-0.0268587834150222</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0177177800847187</v>
+        <v>-0.0257550429507785</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0888013644147136</v>
+        <v>-0.0757982354205299</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0533658042452763</v>
+        <v>0.0242881495189729</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0177177800847187</v>
+        <v>-0.0257550429507785</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0888013644147136</v>
+        <v>-0.0757982354205299</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0533658042452763</v>
+        <v>0.0242881495189729</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0873311556586756</v>
+        <v>-0.0654324848622896</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.17387355120618</v>
+        <v>-0.127001617914673</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.000788760111170725</v>
+        <v>-0.00386335180990642</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
@@ -428,10 +428,10 @@
         <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0537172564458189</v>
+        <v>-0.053717256445819</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765744</v>
+        <v>-0.0201288487765745</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0641540725818796</v>
+        <v>-0.0641540725818793</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927153470462684</v>
+        <v>-0.0927153470462681</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0355927981174907</v>
+        <v>-0.0355927981174905</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0245926488440848</v>
+        <v>-0.0245926488440847</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0546295450346903</v>
+        <v>-0.05462954503469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0054442473465207</v>
+        <v>0.00544424734652063</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,10 +476,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0157041853215816</v>
+        <v>-0.0157041853215817</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0521865518209021</v>
+        <v>-0.0521865518209024</v>
       </c>
       <c r="D5" t="n">
         <v>0.020778181177739</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0286667838346521</v>
+        <v>-0.0286667838346519</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0626833376267647</v>
+        <v>-0.0626833376267642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00534976995746044</v>
+        <v>0.00534976995746049</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0326947926612725</v>
+        <v>-0.0326947926612728</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0567668583978697</v>
+        <v>-0.0567668583978701</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00862272692467531</v>
+        <v>-0.00862272692467547</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0782088563428815</v>
+        <v>-0.0782088563428816</v>
       </c>
       <c r="C8" t="n">
         <v>-0.120788612831146</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0356290998546174</v>
+        <v>-0.0356290998546177</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -547,10 +547,10 @@
         <v>-0.0273476214189922</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0754119270504959</v>
+        <v>-0.0754119270504958</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0207166842125115</v>
+        <v>0.0207166842125114</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000510279633646806</v>
+        <v>0.000510279633646782</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0533936399877183</v>
+        <v>-0.0533936399877184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0544141992550119</v>
+        <v>0.054414199255012</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00563204873647634</v>
+        <v>-0.00563204873647637</v>
       </c>
       <c r="C11" t="n">
         <v>-0.0555489715745713</v>
@@ -598,7 +598,7 @@
         <v>0.0104793786936969</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0487924649769307</v>
+        <v>-0.0487924649769308</v>
       </c>
       <c r="D12" t="n">
         <v>0.0697512223643246</v>
@@ -615,10 +615,10 @@
         <v>-0.125806567920452</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.239492722039258</v>
+        <v>-0.239492722039257</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0121204138016466</v>
+        <v>-0.0121204138016463</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0732324729169756</v>
+        <v>-0.0732324729169752</v>
       </c>
       <c r="C14" t="n">
         <v>-0.202440605612435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0559756597784838</v>
+        <v>0.055975659778484</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -663,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0956099986782644</v>
+        <v>0.0956099986782646</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0214985034786699</v>
+        <v>-0.0214985034786698</v>
       </c>
       <c r="D16" t="n">
         <v>0.212718500835199</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0318036380677912</v>
+        <v>-0.0318036380677914</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0822965950065573</v>
+        <v>-0.0822965950065577</v>
       </c>
       <c r="D17" t="n">
         <v>0.018689318870975</v>
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0577340087736792</v>
+        <v>-0.0577340087736791</v>
       </c>
       <c r="C18" t="n">
         <v>-0.136826906327932</v>
@@ -720,7 +720,7 @@
         <v>-0.13671738911776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.049798850276954</v>
+        <v>0.0497988502769538</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -748,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0726452073054339</v>
+        <v>-0.0726452073054338</v>
       </c>
       <c r="C21" t="n">
         <v>-0.206385646323798</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0610952317129307</v>
+        <v>0.0610952317129308</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -782,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.061671240730143</v>
+        <v>-0.0616712407301431</v>
       </c>
       <c r="C23" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0321916248582977</v>
+        <v>0.0321916248582976</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -819,7 +819,7 @@
         <v>-0.142713166071215</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.258537863458095</v>
+        <v>-0.258537863458096</v>
       </c>
       <c r="D25" t="n">
         <v>-0.0268884686843337</v>
@@ -839,7 +839,7 @@
         <v>-0.214731532354088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229529033487479</v>
+        <v>0.022952903348748</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0547199015664292</v>
+        <v>-0.0547199015664291</v>
       </c>
       <c r="C27" t="n">
         <v>-0.129578069801682</v>
       </c>
       <c r="D27" t="n">
-        <v>0.020138266668824</v>
+        <v>0.0201382666688242</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0975588305565388</v>
+        <v>-0.0975588305565387</v>
       </c>
       <c r="C29" t="n">
         <v>-0.219683384429315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0245657233162376</v>
+        <v>0.0245657233162379</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0177455830795082</v>
+        <v>0.0177455830795081</v>
       </c>
       <c r="C31" t="n">
         <v>-0.129674030460566</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0660407385949495</v>
+        <v>-0.0660407385949494</v>
       </c>
       <c r="C32" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00108491876264682</v>
+        <v>0.00108491876264691</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -952,10 +952,10 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.17971290829258</v>
+        <v>-0.179712908292579</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.293573153842733</v>
+        <v>-0.293573153842732</v>
       </c>
       <c r="D33" t="n">
         <v>-0.0658526627424265</v>
@@ -969,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0265569222543397</v>
+        <v>0.0265569222543398</v>
       </c>
       <c r="C34" t="n">
         <v>-0.103175004699774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.156288849208453</v>
+        <v>0.156288849208454</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0781180680535408</v>
+        <v>0.0781180680535407</v>
       </c>
       <c r="C35" t="n">
         <v>-0.145276103620896</v>
@@ -1009,7 +1009,7 @@
         <v>-0.193612080054605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0503968744826653</v>
+        <v>0.0503968744826654</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00775068673104141</v>
+        <v>0.00775068673104161</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0503794672190532</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0658808406811361</v>
+        <v>0.0658808406811363</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1037,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0412933678280466</v>
+        <v>-0.0412933678280467</v>
       </c>
       <c r="C38" t="n">
         <v>-0.138455527050746</v>
@@ -1057,7 +1057,7 @@
         <v>0.0622181099367375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0442911327542965</v>
+        <v>-0.0442911327542963</v>
       </c>
       <c r="D39" t="n">
         <v>0.168727352627771</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0956579670183294</v>
+        <v>-0.0956579670183293</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.255375085651511</v>
+        <v>-0.25537508565151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0640591516148518</v>
+        <v>0.0640591516148517</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1088,10 +1088,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0621909453471425</v>
+        <v>0.0621909453471427</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.063422218363497</v>
+        <v>-0.0634222183634968</v>
       </c>
       <c r="D41" t="n">
         <v>0.187804109057782</v>
@@ -1105,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0942258340778483</v>
+        <v>0.0942258340778482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0119770053178827</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D42" t="n">
         <v>0.176474662837814</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0573924947248667</v>
+        <v>0.0573924947248664</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.16564996863585</v>
+        <v>-0.165649968635851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280434958085584</v>
+        <v>0.280434958085583</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1156,13 +1156,13 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130703029493065</v>
+        <v>0.130703029493066</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.054846105278871</v>
+        <v>-0.0548461052788708</v>
       </c>
       <c r="D45" t="n">
-        <v>0.316252164265001</v>
+        <v>0.316252164265002</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1173,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0384163128584219</v>
+        <v>0.038416312858422</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0940087847960157</v>
+        <v>-0.0940087847960156</v>
       </c>
       <c r="D46" t="n">
         <v>0.17084141051286</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00397790188562713</v>
+        <v>-0.00397790188562737</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0405513824024224</v>
+        <v>-0.0405513824024227</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0325955786311682</v>
+        <v>0.032595578631168</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0189895836190502</v>
+        <v>0.0189895836190499</v>
       </c>
       <c r="C48" t="n">
         <v>-0.0566773880789962</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0946565553170965</v>
+        <v>0.094656555317096</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0157561854915662</v>
+        <v>-0.0157561854915659</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0715929525179025</v>
+        <v>-0.0715929525179022</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04008058153477</v>
+        <v>0.0400805815347705</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00418745938214907</v>
+        <v>-0.00418745938214937</v>
       </c>
       <c r="C50" t="n">
         <v>-0.209030617978407</v>
@@ -1261,7 +1261,7 @@
         <v>-0.00915953352050666</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0759258302732102</v>
+        <v>-0.0759258302732103</v>
       </c>
       <c r="D51" t="n">
         <v>0.0576067632321969</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0537680139261422</v>
+        <v>-0.0537680139261416</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0829294105584232</v>
+        <v>-0.0829294105584222</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0246066172938611</v>
+        <v>-0.024606617293861</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0705082853828564</v>
+        <v>-0.0705082853828568</v>
       </c>
       <c r="C53" t="n">
         <v>-0.114157787350691</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0268587834150222</v>
+        <v>-0.0268587834150224</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1312,10 +1312,10 @@
         <v>-0.0257550429507785</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0757982354205299</v>
+        <v>-0.0757982354205298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242881495189729</v>
+        <v>0.0242881495189728</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1329,10 +1329,10 @@
         <v>-0.0257550429507785</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0757982354205299</v>
+        <v>-0.0757982354205298</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0242881495189729</v>
+        <v>0.0242881495189728</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0654324848622896</v>
+        <v>-0.0654324848622897</v>
       </c>
       <c r="C56" t="n">
         <v>-0.127001617914673</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0369230526111967</v>
+        <v>-0.0368476975148486</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.053717256445819</v>
+        <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765745</v>
+        <v>-0.0200440693068842</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0641540725818793</v>
+        <v>-0.0642168111352815</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927153470462681</v>
+        <v>-0.0927943679581715</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0355927981174905</v>
+        <v>-0.0356392543123915</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0245926488440847</v>
+        <v>-0.0243202000016895</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05462954503469</v>
+        <v>-0.0543743879916124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00544424734652063</v>
+        <v>0.00573398798823336</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0157041853215817</v>
+        <v>-0.0153152733101473</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0521865518209024</v>
+        <v>-0.0518205634253129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.020778181177739</v>
+        <v>0.0211900168050183</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0286667838346519</v>
+        <v>-0.0286389031103483</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0626833376267642</v>
+        <v>-0.0626760078271849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00534976995746049</v>
+        <v>0.00539820160648838</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0326947926612728</v>
+        <v>-0.0326947926612726</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0567668583978701</v>
+        <v>-0.0567668583978698</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00862272692467547</v>
+        <v>-0.00862272692467542</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
         <v>-0.120788612831146</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0356290998546177</v>
+        <v>-0.0356290998546176</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0273476214189922</v>
+        <v>-0.0273476214189924</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0754119270504958</v>
+        <v>-0.075411927050496</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0207166842125114</v>
+        <v>0.0207166842125112</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000510279633646782</v>
+        <v>0.000510279633646996</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0533936399877184</v>
+        <v>-0.0533936399877181</v>
       </c>
       <c r="D10" t="n">
-        <v>0.054414199255012</v>
+        <v>0.0544141992550121</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00563204873647637</v>
+        <v>-0.00563204873647633</v>
       </c>
       <c r="C11" t="n">
         <v>-0.0555489715745713</v>
@@ -601,7 +601,7 @@
         <v>-0.0487924649769308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0697512223643246</v>
+        <v>0.0697512223643245</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -618,7 +618,7 @@
         <v>-0.239492722039257</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0121204138016463</v>
+        <v>-0.0121204138016464</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0732324729169752</v>
+        <v>-0.0732324729169753</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.202440605612435</v>
+        <v>-0.202440605612434</v>
       </c>
       <c r="D14" t="n">
         <v>0.055975659778484</v>
@@ -649,7 +649,7 @@
         <v>0.0779942095418173</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0316805235469657</v>
+        <v>-0.0316805235469658</v>
       </c>
       <c r="D15" t="n">
         <v>0.1876689426306</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0956099986782646</v>
+        <v>0.0956099986782645</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0214985034786698</v>
@@ -680,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0318036380677914</v>
+        <v>-0.0318036380677913</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0822965950065577</v>
+        <v>-0.0822965950065574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.018689318870975</v>
+        <v>0.0186893188709749</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0577340087736791</v>
+        <v>-0.0577340087736794</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.136826906327932</v>
+        <v>-0.136826906327933</v>
       </c>
       <c r="D18" t="n">
-        <v>0.021358888780574</v>
+        <v>0.0213588887805739</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0434592694204032</v>
+        <v>-0.0434592694204033</v>
       </c>
       <c r="C19" t="n">
         <v>-0.13671738911776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0497988502769538</v>
+        <v>0.0497988502769537</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -734,7 +734,7 @@
         <v>0.105449338356119</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0204457201484487</v>
+        <v>-0.0204457201484486</v>
       </c>
       <c r="D20" t="n">
         <v>0.231344396860687</v>
@@ -754,7 +754,7 @@
         <v>-0.206385646323798</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0610952317129308</v>
+        <v>0.0610952317129307</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.109397459518373</v>
+        <v>-0.109397459518374</v>
       </c>
       <c r="C22" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0503765986897887</v>
+        <v>-0.0503765986897891</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -782,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0616712407301431</v>
+        <v>-0.0616712407301433</v>
       </c>
       <c r="C23" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0321916248582976</v>
+        <v>0.0321916248582974</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -802,10 +802,10 @@
         <v>-0.26246254996988</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.456943328643285</v>
+        <v>-0.456943328643286</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0679817712964741</v>
+        <v>-0.0679817712964745</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>-0.258537863458096</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0268884686843337</v>
+        <v>-0.0268884686843338</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0958893145026702</v>
+        <v>-0.0958893145026703</v>
       </c>
       <c r="C26" t="n">
         <v>-0.214731532354088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.022952903348748</v>
+        <v>0.0229529033487478</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -890,7 +890,7 @@
         <v>-0.219683384429315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0245657233162379</v>
+        <v>0.0245657233162378</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0312130051168108</v>
+        <v>-0.0312130051168107</v>
       </c>
       <c r="C30" t="n">
         <v>-0.166085873797252</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0177455830795081</v>
+        <v>0.017745583079508</v>
       </c>
       <c r="C31" t="n">
         <v>-0.129674030460566</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0660407385949494</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C32" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00108491876264691</v>
+        <v>0.00108491876264688</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -955,7 +955,7 @@
         <v>-0.179712908292579</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.293573153842732</v>
+        <v>-0.293573153842733</v>
       </c>
       <c r="D33" t="n">
         <v>-0.0658526627424265</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0265569222543398</v>
+        <v>0.0265569222543397</v>
       </c>
       <c r="C34" t="n">
         <v>-0.103175004699774</v>
@@ -992,7 +992,7 @@
         <v>-0.145276103620896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301512239727978</v>
+        <v>0.301512239727977</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00775068673104161</v>
+        <v>0.00775068673104159</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0503794672190531</v>
+        <v>-0.050379467219053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0658808406811363</v>
+        <v>0.0658808406811362</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1037,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0412933678280467</v>
+        <v>-0.0412933678280466</v>
       </c>
       <c r="C38" t="n">
         <v>-0.138455527050746</v>
@@ -1057,7 +1057,7 @@
         <v>0.0622181099367375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0442911327542963</v>
+        <v>-0.0442911327542964</v>
       </c>
       <c r="D39" t="n">
         <v>0.168727352627771</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0956579670183293</v>
+        <v>-0.0956579670183292</v>
       </c>
       <c r="C40" t="n">
         <v>-0.25537508565151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0640591516148517</v>
+        <v>0.0640591516148519</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1088,10 +1088,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0621909453471427</v>
+        <v>0.0621909453471426</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0634222183634968</v>
+        <v>-0.0634222183634967</v>
       </c>
       <c r="D41" t="n">
         <v>0.187804109057782</v>
@@ -1108,7 +1108,7 @@
         <v>0.0942258340778482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0119770053178828</v>
+        <v>0.0119770053178825</v>
       </c>
       <c r="D42" t="n">
         <v>0.176474662837814</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0573924947248664</v>
+        <v>0.0573924947248666</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.165649968635851</v>
+        <v>-0.16564996863585</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280434958085583</v>
+        <v>0.280434958085584</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
         <v>0.151394787185451</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0037557504716324</v>
+        <v>-0.00375575047163262</v>
       </c>
       <c r="D44" t="n">
         <v>0.306545324842535</v>
@@ -1156,10 +1156,10 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130703029493066</v>
+        <v>0.130703029493065</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0548461052788708</v>
+        <v>-0.0548461052788712</v>
       </c>
       <c r="D45" t="n">
         <v>0.316252164265002</v>
@@ -1176,7 +1176,7 @@
         <v>0.038416312858422</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0940087847960156</v>
+        <v>-0.0940087847960157</v>
       </c>
       <c r="D46" t="n">
         <v>0.17084141051286</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00397790188562737</v>
+        <v>-0.00403137556626488</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0405513824024227</v>
+        <v>-0.0406048603968052</v>
       </c>
       <c r="D47" t="n">
-        <v>0.032595578631168</v>
+        <v>0.0325421092642755</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0189895836190499</v>
+        <v>0.0189892625133635</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0566773880789962</v>
+        <v>-0.0566811084509713</v>
       </c>
       <c r="D48" t="n">
-        <v>0.094656555317096</v>
+        <v>0.0946596334776982</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0157561854915659</v>
+        <v>-0.0158118954956283</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0715929525179022</v>
+        <v>-0.0716469114992894</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0400805815347705</v>
+        <v>0.0400231205080329</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00418745938214937</v>
+        <v>-0.0035843133683742</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.209030617978407</v>
+        <v>-0.208491256954231</v>
       </c>
       <c r="D50" t="n">
-        <v>0.200655699214109</v>
+        <v>0.201322630217482</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00915953352050666</v>
+        <v>-0.00934599257897999</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0759258302732103</v>
+        <v>-0.0761086030506213</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0576067632321969</v>
+        <v>0.0574166178926614</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0537680139261416</v>
+        <v>-0.0534948171234771</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0829294105584222</v>
+        <v>-0.082673481961128</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.024606617293861</v>
+        <v>-0.0243161522858262</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0705082853828568</v>
+        <v>-0.0706202185919235</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.114157787350691</v>
+        <v>-0.114295502723153</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0268587834150224</v>
+        <v>-0.0269449344606937</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0257550429507785</v>
+        <v>-0.0250966956662279</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0757982354205298</v>
+        <v>-0.0751723172335398</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242881495189728</v>
+        <v>0.024978925901084</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0257550429507785</v>
+        <v>-0.0250966956662279</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0757982354205298</v>
+        <v>-0.0751723172335398</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0242881495189728</v>
+        <v>0.024978925901084</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0654324848622897</v>
+        <v>-0.0650696407039656</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.127001617914673</v>
+        <v>-0.126660788035846</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.00386335180990642</v>
+        <v>-0.00347849337208485</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country_detailed.xlsx
@@ -431,7 +431,7 @@
         <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0200440693068842</v>
+        <v>-0.0200440693068843</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0642168111352815</v>
+        <v>-0.0642168111352817</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927943679581715</v>
+        <v>-0.0927943679581719</v>
       </c>
       <c r="D3" t="n">
         <v>-0.0356392543123915</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0243202000016895</v>
+        <v>-0.0243202000016896</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0543743879916124</v>
+        <v>-0.0543743879916126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00573398798823336</v>
+        <v>0.00573398798823335</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0153152733101473</v>
+        <v>-0.0153152733101474</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0518205634253129</v>
+        <v>-0.0518205634253131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0211900168050183</v>
+        <v>0.0211900168050182</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0286389031103483</v>
+        <v>-0.0286389031103481</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0626760078271849</v>
+        <v>-0.0626760078271846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00539820160648838</v>
+        <v>0.00539820160648851</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -513,10 +513,10 @@
         <v>-0.0326947926612726</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0567668583978698</v>
+        <v>-0.0567668583978699</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00862272692467542</v>
+        <v>-0.00862272692467536</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0782088563428816</v>
+        <v>-0.0782088563428821</v>
       </c>
       <c r="C8" t="n">
         <v>-0.120788612831146</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0356290998546176</v>
+        <v>-0.035629099854618</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0273476214189924</v>
+        <v>-0.0273476214189922</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.075411927050496</v>
+        <v>-0.0754119270504957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0207166842125112</v>
+        <v>0.0207166842125114</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000510279633646996</v>
+        <v>0.000510279633646734</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0533936399877181</v>
+        <v>-0.0533936399877183</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0544141992550121</v>
+        <v>0.0544141992550118</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00563204873647633</v>
+        <v>-0.00563204873647621</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0555489715745713</v>
+        <v>-0.0555489715745712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0442848741016186</v>
+        <v>0.0442848741016188</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -618,7 +618,7 @@
         <v>-0.239492722039257</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0121204138016464</v>
+        <v>-0.0121204138016463</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0732324729169753</v>
+        <v>-0.0732324729169755</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.202440605612434</v>
+        <v>-0.202440605612435</v>
       </c>
       <c r="D14" t="n">
         <v>0.055975659778484</v>
@@ -646,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0779942095418173</v>
+        <v>0.0779942095418175</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0316805235469658</v>
+        <v>-0.0316805235469655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1876689426306</v>
+        <v>0.187668942630601</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -663,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0956099986782645</v>
+        <v>0.0956099986782646</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0214985034786698</v>
+        <v>-0.0214985034786697</v>
       </c>
       <c r="D16" t="n">
         <v>0.212718500835199</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0318036380677913</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0822965950065574</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D17" t="n">
         <v>0.0186893188709749</v>
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0577340087736794</v>
+        <v>-0.0577340087736793</v>
       </c>
       <c r="C18" t="n">
         <v>-0.136826906327933</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0213588887805739</v>
+        <v>0.021358888780574</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0434592694204033</v>
+        <v>-0.0434592694204034</v>
       </c>
       <c r="C19" t="n">
         <v>-0.13671738911776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0497988502769537</v>
+        <v>0.0497988502769538</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.105449338356119</v>
+        <v>0.10544933835612</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0204457201484486</v>
+        <v>-0.0204457201484484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231344396860687</v>
+        <v>0.231344396860688</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.109397459518374</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C22" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0503765986897891</v>
+        <v>-0.0503765986897889</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -782,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0616712407301433</v>
+        <v>-0.061671240730143</v>
       </c>
       <c r="C23" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0321916248582974</v>
+        <v>0.0321916248582976</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -802,10 +802,10 @@
         <v>-0.26246254996988</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.456943328643286</v>
+        <v>-0.456943328643285</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0679817712964745</v>
+        <v>-0.067981771296474</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>-0.258537863458096</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0268884686843338</v>
+        <v>-0.0268884686843337</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0958893145026703</v>
+        <v>-0.0958893145026701</v>
       </c>
       <c r="C26" t="n">
         <v>-0.214731532354088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229529033487478</v>
+        <v>0.0229529033487479</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0547199015664291</v>
+        <v>-0.0547199015664295</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.129578069801682</v>
+        <v>-0.129578069801683</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0201382666688242</v>
+        <v>0.0201382666688238</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>-0.219683384429315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0245657233162378</v>
+        <v>0.0245657233162377</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0312130051168107</v>
+        <v>-0.0312130051168109</v>
       </c>
       <c r="C30" t="n">
         <v>-0.166085873797252</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017745583079508</v>
+        <v>0.0177455830795079</v>
       </c>
       <c r="C31" t="n">
         <v>-0.129674030460566</v>
@@ -941,7 +941,7 @@
         <v>-0.133166395952546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00108491876264688</v>
+        <v>0.00108491876264687</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.179712908292579</v>
+        <v>-0.17971290829258</v>
       </c>
       <c r="C33" t="n">
         <v>-0.293573153842733</v>
@@ -969,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0265569222543397</v>
+        <v>0.0265569222543398</v>
       </c>
       <c r="C34" t="n">
         <v>-0.103175004699774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.156288849208454</v>
+        <v>0.156288849208453</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -986,13 +986,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0781180680535407</v>
+        <v>0.0781180680535406</v>
       </c>
       <c r="C35" t="n">
         <v>-0.145276103620896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301512239727977</v>
+        <v>0.301512239727978</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1003,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0716076027859697</v>
+        <v>-0.0716076027859696</v>
       </c>
       <c r="C36" t="n">
         <v>-0.193612080054605</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00775068673104159</v>
+        <v>0.00775068673104143</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.050379467219053</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0658808406811362</v>
+        <v>0.065880840681136</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0622181099367375</v>
+        <v>0.0622181099367374</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0442911327542964</v>
+        <v>-0.0442911327542965</v>
       </c>
       <c r="D39" t="n">
         <v>0.168727352627771</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0956579670183292</v>
+        <v>-0.0956579670183293</v>
       </c>
       <c r="C40" t="n">
         <v>-0.25537508565151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0640591516148519</v>
+        <v>0.0640591516148518</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1091,7 +1091,7 @@
         <v>0.0621909453471426</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0634222183634967</v>
+        <v>-0.0634222183634968</v>
       </c>
       <c r="D41" t="n">
         <v>0.187804109057782</v>
@@ -1105,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0942258340778482</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0119770053178825</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D42" t="n">
         <v>0.176474662837814</v>
@@ -1128,7 +1128,7 @@
         <v>-0.16564996863585</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280434958085584</v>
+        <v>0.280434958085583</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
         <v>0.151394787185451</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00375575047163262</v>
+        <v>-0.00375575047163243</v>
       </c>
       <c r="D44" t="n">
         <v>0.306545324842535</v>
@@ -1159,7 +1159,7 @@
         <v>0.130703029493065</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0548461052788712</v>
+        <v>-0.054846105278871</v>
       </c>
       <c r="D45" t="n">
         <v>0.316252164265002</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00403137556626488</v>
+        <v>-0.00403137556626472</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0406048603968052</v>
+        <v>-0.040604860396805</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0325421092642755</v>
+        <v>0.0325421092642756</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0158118954956283</v>
+        <v>-0.0158118954956285</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0716469114992894</v>
+        <v>-0.0716469114992897</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0400231205080329</v>
+        <v>0.0400231205080327</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0035843133683742</v>
+        <v>-0.00358431336837412</v>
       </c>
       <c r="C50" t="n">
         <v>-0.208491256954231</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201322630217482</v>
+        <v>0.201322630217483</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00934599257897999</v>
+        <v>-0.00934599257897984</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0761086030506213</v>
+        <v>-0.0761086030506212</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0574166178926614</v>
+        <v>0.0574166178926615</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0534948171234771</v>
+        <v>-0.0534948171234775</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.082673481961128</v>
+        <v>-0.0826734819611284</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0243161522858262</v>
+        <v>-0.0243161522858266</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1309,10 +1309,10 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0250966956662279</v>
+        <v>-0.025096695666228</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0751723172335398</v>
+        <v>-0.07517231723354</v>
       </c>
       <c r="D54" t="n">
         <v>0.024978925901084</v>
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0250966956662279</v>
+        <v>-0.025096695666228</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0751723172335398</v>
+        <v>-0.07517231723354</v>
       </c>
       <c r="D55" t="n">
         <v>0.024978925901084</v>
@@ -1349,7 +1349,7 @@
         <v>-0.126660788035846</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.00347849337208485</v>
+        <v>-0.00347849337208496</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
